--- a/biology/Médecine/Veine_thoracique_latérale/Veine_thoracique_latérale.xlsx
+++ b/biology/Médecine/Veine_thoracique_latérale/Veine_thoracique_latérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_thoracique_lat%C3%A9rale</t>
+          <t>Veine_thoracique_latérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine thoracique latérale est une veine située dans le creux axillaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_thoracique_lat%C3%A9rale</t>
+          <t>Veine_thoracique_latérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine thoracique latérale est située contre la paroi interne du creux axillaire. Elle est satellite de l'artère thoracique latérale.
 Elle reçoit les veines perforantes latérales intercostales et se jette dans la veine axillaire.
